--- a/aerodynamic_coefficients/polimi_raw_data/ResultsCoefficients-Rev1.xlsx
+++ b/aerodynamic_coefficients/polimi_raw_data/ResultsCoefficients-Rev1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vegvesen.sharepoint.com/sites/arb-bjffeedwindtunneltests/Delte dokumenter/Model test results/Results/Rev1-20231122/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bercos\PycharmProjects\benchmark_straight_bridge\aerodynamic_coefficients\polimi_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8F6FCC2C-6971-4FD1-9875-04A5DF48572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B725AED-36A9-4EE8-9ED3-9F58E979DBA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593AA53-3D72-4976-B1A6-BC4C53CF5203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{D8F51A85-E45C-4A07-B229-F3E75E8A3570}"/>
+    <workbookView xWindow="-23148" yWindow="5952" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{D8F51A85-E45C-4A07-B229-F3E75E8A3570}"/>
   </bookViews>
   <sheets>
     <sheet name="K12-G-L" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="K12-G-L-B" sheetId="6" r:id="rId6"/>
     <sheet name="K12-C" sheetId="7" r:id="rId7"/>
     <sheet name="K12-P" sheetId="8" r:id="rId8"/>
-    <sheet name="K12-AG-BAR" sheetId="9" r:id="rId9"/>
+    <sheet name="K12-AG-BAR-AERO" sheetId="9" r:id="rId9"/>
+    <sheet name="K12-AG-BAR-GEO" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="39">
   <si>
     <t>run</t>
   </si>
@@ -6780,17 +6781,1811 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188CF7B6-6E66-4B05-8A63-E11BA0E013B5}">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>60.65</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.9981629999999999E-4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1166133</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-2.16814E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-7.0074719999999993E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5.0054330000000001E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-4.1994579999999997E-3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.098693E-3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1197037</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-3.9296249999999998E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-7.0255949999999998E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>-5.0322770000000003E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>3.5063360000000001E-3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>7.4925489999999996E-4</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.1181585</v>
+      </c>
+      <c r="T2" s="3">
+        <v>-3.0488830000000001E-2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>-7.0165329999999998E-2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>8.5127870000000008E-3</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1.170499E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>61.01</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2780299999999998E-4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1109666</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.13330929999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-9.9383959999999993E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9908899999999997E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-1.405218E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7.9794900000000005E-4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.1157962</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.1162987</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-0.1010118</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-3.8476349999999999E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2.3853580000000002E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>6.1287600000000005E-4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.11338139999999999</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.124804</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-0.10019790000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <v>9.0666310000000003E-3</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2.8608660000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>61.15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8.1169160000000001E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1039725</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.28089609999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.1270434</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.8567820000000001E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-2.4627349999999999E-4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.5307710000000001E-4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1141394</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.24792500000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-0.12626689999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>-2.3134470000000001E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4.6572269999999998E-4</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5.8238439999999995E-4</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.1090559</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.2644106</v>
+      </c>
+      <c r="U4" s="3">
+        <v>-0.1266552</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1.8901979999999999E-2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>5.1005989999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>61.16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.9537160000000009E-4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1041586</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.39209070000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-0.14083109999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.8151259999999999E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.2764660000000001E-4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.4477579999999997E-4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.10832170000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.363703</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-0.1397871</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-1.0204899999999999E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>7.9178590000000002E-4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>9.7007370000000003E-4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.1062401</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.37789679999999998</v>
+      </c>
+      <c r="U5" s="3">
+        <v>-0.14030909999999999</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.7908520000000001E-2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2.5533489999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>61.9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.50906E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.2653470000000002E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.48525950000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-0.14808379999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.059191E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.7150780000000002E-4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>7.0107999999999998E-4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.103629</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.4620359</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-0.1518062</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-2.8243349999999999E-3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-2.1743469999999999E-4</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1.1050700000000001E-3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>9.8141240000000005E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.4736477</v>
+      </c>
+      <c r="U6" s="3">
+        <v>-0.14994499999999999</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.528409E-2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5.5648490000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>60.43</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.2046750000000001E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1133489</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.1983858</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.8273980000000001E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.0102899999999999E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-8.3761029999999993E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.271077E-4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.1182537</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-0.21552830000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-2.6897029999999999E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-5.0673219999999998E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>7.2033490000000004E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.7378759999999998E-4</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.1158013</v>
+      </c>
+      <c r="T7" s="3">
+        <v>-0.2069571</v>
+      </c>
+      <c r="U7" s="3">
+        <v>-2.7585499999999999E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>8.1299639999999999E-3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.821357E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>60.7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.3122089999999998E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1117136</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-0.28048079999999997</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-6.3654380000000002E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5.5461209999999997E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-9.385081E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.1450300000000003E-4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1146678</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-0.31202999999999997</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1.8040420000000001E-3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-5.4869599999999998E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>8.7055750000000001E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5.2286189999999999E-4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.11319070000000001</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-0.2962554</v>
+      </c>
+      <c r="U8" s="3">
+        <v>-4.0847399999999999E-3</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.5783060000000002E-2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1.110453E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>59.88</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0285400000000001E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.1087229</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.38115729999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.8920269999999999E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.2989429999999997E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-1.138632E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.9328709999999995E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.11324919999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-0.41750569999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2.442219E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-5.2381030000000002E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1.128972E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>7.6091329999999999E-4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.110986</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-0.39933150000000001</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.167123E-2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.8147380000000001E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2.173594E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>60.38</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.479317E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.1010967</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.47800559999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.652974E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.054529E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-1.4102750000000001E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-1.2950120000000001E-4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.1024106</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-0.50311170000000005</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5.1863199999999998E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-5.66954E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1.1103740000000001E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6.7490789999999996E-4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.1017536</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-0.49055870000000001</v>
+      </c>
+      <c r="U10" s="3">
+        <v>4.9196469999999999E-2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>9.2493599999999999E-3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>-8.5449189999999996E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>60.19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.0528339999999999E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.4278180000000003E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.56435369999999996</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.2827230000000007E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.3188149999999997E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1.554432E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.5410089999999998E-5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9.5672099999999996E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-0.58691079999999995</v>
+      </c>
+      <c r="O11" s="3">
+        <v>7.6102539999999996E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-5.2274000000000001E-2</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1.405518E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.039122E-3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>9.497514E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>-0.57563229999999999</v>
+      </c>
+      <c r="U11" s="3">
+        <v>7.4464890000000006E-2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1.1530149999999999E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>-6.0308159999999997E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>60.13</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.1953530000000001E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7.4387770000000006E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-0.76423189999999996</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.13153000000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5.9428439999999999E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-1.8939089999999999E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-1.2138089999999999E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7.4676049999999994E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-0.77406770000000003</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.13395219999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-5.5114040000000003E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.6802230000000001E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4.9077180000000004E-4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>7.4531910000000007E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <v>-0.76914979999999999</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.1327411</v>
+      </c>
+      <c r="V12" s="3">
+        <v>6.9855560000000004E-3</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-9.2691449999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>59.87</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.0764569999999999E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.4077060000000003E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.91324669999999997</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.17997869999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5.4064500000000001E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-2.2471629999999999E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-2.0423939999999999E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5.4503219999999998E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-0.94976419999999995</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.1897134</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-5.2770440000000002E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9622239999999999E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1.7031590000000001E-5</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5.4290140000000001E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>-0.93150549999999999</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.18484600000000001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1.8573180000000002E-2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>-1.215491E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>60.29</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.7659709999999999E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.424087E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-1.0481510000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.22448319999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.0614089999999999E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-2.3765000000000001E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-2.7150020000000002E-3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3.3335499999999997E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-1.093426</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.23689750000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-3.778161E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2.059093E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.548455E-5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3.3788180000000001E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-1.070789</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.23069039999999999</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2.364144E-2</v>
+      </c>
+      <c r="W14" s="3">
+        <v>-2.0314780000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>59.75</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.8033870000000002E-4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.1238974</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-0.22362019999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-2.3880040000000002E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5.0347839999999998E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-9.5445979999999996E-3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.5574179999999998E-4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.1290683</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-0.24651439999999999</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-2.3406389999999999E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-4.9924360000000001E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>8.5488040000000001E-3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>5.1804029999999999E-4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.12648290000000001</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-0.23506730000000001</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-2.364322E-2</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1.14503E-2</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2.0404849999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>60.16</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6.3214909999999996E-4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.12962650000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-7.8012890000000001E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-6.0611749999999999E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.84044E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-6.5287009999999996E-3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7.3031749999999997E-5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.1301465</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-7.3787359999999996E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-6.1957730000000003E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-5.096668E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3.9407879999999998E-3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3.5259050000000002E-4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.12988649999999999</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-7.5900129999999996E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>-6.1284739999999997E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-3.35542E-3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>-1.0386950000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>60.41</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9.8728610000000001E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12883520000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.3142409999999996E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-9.0199070000000006E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.7485280000000003E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-4.544691E-3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-1.3736879999999999E-4</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.1354757</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.9220140000000003E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-9.2474070000000005E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-3.9925259999999997E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2.1632700000000001E-3</v>
+      </c>
+      <c r="R17" s="3">
+        <v>4.2495860000000001E-4</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.13215540000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5.6181269999999998E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <v>-9.1336570000000006E-2</v>
+      </c>
+      <c r="V17" s="3">
+        <v>5.6143490000000002E-3</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2.0690359999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>60.68</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.301616E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.12639900000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.17092080000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-0.11026900000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.896466E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-7.8393460000000001E-4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.1140409999999999E-6</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.1346735</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.16543430000000001</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-0.1157791</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2.8528129999999999E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3.496056E-4</v>
+      </c>
+      <c r="R18" s="3">
+        <v>6.51365E-4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.13053619999999999</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.16817750000000001</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-0.1130241</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2.911519E-3</v>
+      </c>
+      <c r="W18" s="3">
+        <v>3.8447020000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>61.13</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.394974E-3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.12518480000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.27364100000000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-0.12805349999999999</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.0529249999999999E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8.3984200000000001E-5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>8.4509799999999996E-4</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.1295116</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.27083489999999999</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-0.13130649999999999</v>
+      </c>
+      <c r="P19" s="3">
+        <v>-1.6954259999999999E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-6.3960329999999998E-4</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1.120036E-3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.12734819999999999</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.27223799999999998</v>
+      </c>
+      <c r="U19" s="3">
+        <v>-0.12967999999999999</v>
+      </c>
+      <c r="V19" s="3">
+        <v>3.164989E-3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1.846206E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>61.81</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.2263890000000001E-3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.11215269999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.37691780000000003</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-0.13684769999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.470805E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.5694159999999999E-3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4.8154439999999997E-5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.12719069999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.37047350000000001</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-0.14935370000000001</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-9.3678719999999993E-3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2.129345E-4</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.1372719999999999E-3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.11967170000000001</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.37369560000000002</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-0.1431007</v>
+      </c>
+      <c r="V20" s="3">
+        <v>5.8335380000000001E-3</v>
+      </c>
+      <c r="W20" s="3">
+        <v>8.060312E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>60.26</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0008930000000001E-3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.1110506</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-0.389291</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.2264570000000001E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5.4221119999999998E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1.2363880000000001E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2.3869590000000001E-4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.11774809999999999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-0.4218305</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2.452592E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-5.2050409999999998E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1.208833E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>6.1979440000000004E-4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.1143994</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-0.4055607</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2.3395249999999999E-2</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1.7058790000000001E-2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3.149981E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>60.38</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.06873E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9.7815559999999996E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-0.58055650000000003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7.3803869999999994E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6.1791529999999997E-2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-1.542791E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-5.0994859999999996E-4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.1004993</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-0.61454109999999995</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7.9221040000000006E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-5.4906700000000003E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1.424397E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7.7939090000000001E-4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>9.9157419999999996E-2</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-0.59754879999999999</v>
+      </c>
+      <c r="U22" s="3">
+        <v>7.6512460000000004E-2</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2.0125219999999999E-2</v>
+      </c>
+      <c r="W22" s="3">
+        <v>7.254475E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>60.36</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2.487908E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7.924813E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-0.7704493</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.1277587</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.7197459999999999E-2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1.9391780000000001E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-9.6376980000000001E-4</v>
+      </c>
+      <c r="M23" s="3">
+        <v>8.1452689999999994E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-0.79980890000000004</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.1338579</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-5.6667330000000002E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1.7591119999999998E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>7.6206889999999995E-4</v>
+      </c>
+      <c r="S23" s="3">
+        <v>8.0350409999999997E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-0.78512910000000002</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.13080829999999999</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.467749E-2</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.8187079999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>60.16</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.200582E-3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.8212170000000001E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-0.92908270000000004</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.17865030000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4.7273229999999999E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-2.2674570000000002E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-1.7599580000000001E-3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5.8486139999999999E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-0.95410720000000004</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.18493039999999999</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-5.1094460000000001E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2.0165800000000001E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2.2031230000000001E-4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>5.8349159999999997E-2</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-0.94159490000000001</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.18179039999999999</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.0373759999999999E-2</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-1.1198950000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>60.62</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.934697E-3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.8786519999999998E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-1.0689690000000001</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.2230356</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4.0995730000000001E-2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-2.3413610000000001E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-2.7514810000000001E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>4.0409710000000001E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-1.106589</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.23147239999999999</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-3.9517780000000002E-2</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2.0993850000000001E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <v>9.1607819999999995E-5</v>
+      </c>
+      <c r="S25" s="3">
+        <v>3.9598109999999999E-2</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-1.0877790000000001</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.22725400000000001</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1.9206310000000001E-2</v>
+      </c>
+      <c r="W25" s="3">
+        <v>-4.1307319999999998E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD60554D-5AF0-4255-BF95-FD636DB81F44}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.23046875" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
@@ -8932,11 +10727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4603FFD-EB78-4EBA-A780-CDD9FCF2101F}">
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -15124,13 +16922,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B97F54-6E7C-4E04-89EA-37343F0BB8FF}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.84375" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
@@ -21390,11 +23188,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F290E-21BF-45FE-AB9B-48F162930E2D}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.84375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -27658,6 +29459,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -30292,7 +32096,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -31295,785 +33099,224 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>59.75</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7.8033870000000002E-4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.1238974</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-0.22362019999999999</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2.3880040000000002E-2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5.0347839999999998E-2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-9.5445979999999996E-3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2.5574179999999998E-4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.1290683</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-0.24651439999999999</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-2.3406389999999999E-2</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-4.9924360000000001E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>8.5488040000000001E-3</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5.1804029999999999E-4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.12648290000000001</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-0.23506730000000001</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-2.364322E-2</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1.14503E-2</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2.0404849999999999E-3</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>60.16</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6.3214909999999996E-4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.12962650000000001</v>
-      </c>
-      <c r="H16" s="3">
-        <v>-7.8012890000000001E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-6.0611749999999999E-2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4.84044E-2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>-6.5287009999999996E-3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>7.3031749999999997E-5</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.1301465</v>
-      </c>
-      <c r="N16" s="3">
-        <v>-7.3787359999999996E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>-6.1957730000000003E-2</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-5.096668E-2</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>3.9407879999999998E-3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>3.5259050000000002E-4</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.12988649999999999</v>
-      </c>
-      <c r="T16" s="3">
-        <v>-7.5900129999999996E-2</v>
-      </c>
-      <c r="U16" s="3">
-        <v>-6.1284739999999997E-2</v>
-      </c>
-      <c r="V16" s="3">
-        <v>-3.35542E-3</v>
-      </c>
-      <c r="W16" s="3">
-        <v>-1.0386950000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>60.41</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9.8728610000000001E-4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.12883520000000001</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6.3142409999999996E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-9.0199070000000006E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3.7485280000000003E-2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-4.544691E-3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-1.3736879999999999E-4</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.1354757</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4.9220140000000003E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-9.2474070000000005E-2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-3.9925259999999997E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2.1632700000000001E-3</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4.2495860000000001E-4</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0.13215540000000001</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5.6181269999999998E-2</v>
-      </c>
-      <c r="U17" s="3">
-        <v>-9.1336570000000006E-2</v>
-      </c>
-      <c r="V17" s="3">
-        <v>5.6143490000000002E-3</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2.0690359999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>135</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>60.68</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.301616E-3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.12639900000000001</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.17092080000000001</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-0.11026900000000001</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2.896466E-2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-7.8393460000000001E-4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1.1140409999999999E-6</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.1346735</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.16543430000000001</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-0.1157791</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2.8528129999999999E-2</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3.496056E-4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>6.51365E-4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.13053619999999999</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.16817750000000001</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-0.1130241</v>
-      </c>
-      <c r="V18" s="3">
-        <v>2.911519E-3</v>
-      </c>
-      <c r="W18" s="3">
-        <v>3.8447020000000002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>61.13</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.394974E-3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.12518480000000001</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.27364100000000002</v>
-      </c>
-      <c r="I19" s="3">
-        <v>-0.12805349999999999</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2.0529249999999999E-2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8.3984200000000001E-5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>8.4509799999999996E-4</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.1295116</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.27083489999999999</v>
-      </c>
-      <c r="O19" s="3">
-        <v>-0.13130649999999999</v>
-      </c>
-      <c r="P19" s="3">
-        <v>-1.6954259999999999E-2</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>-6.3960329999999998E-4</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1.120036E-3</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.12734819999999999</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0.27223799999999998</v>
-      </c>
-      <c r="U19" s="3">
-        <v>-0.12967999999999999</v>
-      </c>
-      <c r="V19" s="3">
-        <v>3.164989E-3</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1.846206E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>61.81</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.2263890000000001E-3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.11215269999999999</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.37691780000000003</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-0.13684769999999999</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1.470805E-2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.5694159999999999E-3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4.8154439999999997E-5</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.12719069999999999</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.37047350000000001</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-0.14935370000000001</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-9.3678719999999993E-3</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2.129345E-4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1.1372719999999999E-3</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0.11967170000000001</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0.37369560000000002</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-0.1431007</v>
-      </c>
-      <c r="V20" s="3">
-        <v>5.8335380000000001E-3</v>
-      </c>
-      <c r="W20" s="3">
-        <v>8.060312E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>144</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>60.26</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>-2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.0008930000000001E-3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.1110506</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-0.389291</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2.2264570000000001E-2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5.4221119999999998E-2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1.2363880000000001E-2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2.3869590000000001E-4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.11774809999999999</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-0.4218305</v>
-      </c>
-      <c r="O21" s="3">
-        <v>2.452592E-2</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-5.2050409999999998E-2</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1.208833E-2</v>
-      </c>
-      <c r="R21" s="3">
-        <v>6.1979440000000004E-4</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.1143994</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-0.4055607</v>
-      </c>
-      <c r="U21" s="3">
-        <v>2.3395249999999999E-2</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1.7058790000000001E-2</v>
-      </c>
-      <c r="W21" s="3">
-        <v>3.149981E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>147</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22">
-        <v>60.38</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>-4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2.06873E-3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>9.7815559999999996E-2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>-0.58055650000000003</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7.3803869999999994E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6.1791529999999997E-2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-1.542791E-2</v>
-      </c>
-      <c r="L22" s="3">
-        <v>-5.0994859999999996E-4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.1004993</v>
-      </c>
-      <c r="N22" s="3">
-        <v>-0.61454109999999995</v>
-      </c>
-      <c r="O22" s="3">
-        <v>7.9221040000000006E-2</v>
-      </c>
-      <c r="P22" s="3">
-        <v>-5.4906700000000003E-2</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1.424397E-2</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7.7939090000000001E-4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>9.9157419999999996E-2</v>
-      </c>
-      <c r="T22" s="3">
-        <v>-0.59754879999999999</v>
-      </c>
-      <c r="U22" s="3">
-        <v>7.6512460000000004E-2</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2.0125219999999999E-2</v>
-      </c>
-      <c r="W22" s="3">
-        <v>7.254475E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23">
-        <v>60.36</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>-6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.487908E-3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>7.924813E-2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-0.7704493</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.1277587</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5.7197459999999999E-2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1.9391780000000001E-2</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-9.6376980000000001E-4</v>
-      </c>
-      <c r="M23" s="3">
-        <v>8.1452689999999994E-2</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-0.79980890000000004</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.1338579</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-5.6667330000000002E-2</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1.7591119999999998E-2</v>
-      </c>
-      <c r="R23" s="3">
-        <v>7.6206889999999995E-4</v>
-      </c>
-      <c r="S23" s="3">
-        <v>8.0350409999999997E-2</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-0.78512910000000002</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0.13080829999999999</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1.467749E-2</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1.8187079999999999E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24">
-        <v>60.16</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>-8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.200582E-3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5.8212170000000001E-2</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-0.92908270000000004</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.17865030000000001</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4.7273229999999999E-2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-2.2674570000000002E-2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1.7599580000000001E-3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>5.8486139999999999E-2</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-0.95410720000000004</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.18493039999999999</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-5.1094460000000001E-2</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2.0165800000000001E-2</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2.2031230000000001E-4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>5.8349159999999997E-2</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-0.94159490000000001</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0.18179039999999999</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1.0373759999999999E-2</v>
-      </c>
-      <c r="W24" s="3">
-        <v>-1.1198950000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25">
-        <v>60.62</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>-10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.934697E-3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3.8786519999999998E-2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>-1.0689690000000001</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.2230356</v>
-      </c>
-      <c r="J25" s="3">
-        <v>4.0995730000000001E-2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>-2.3413610000000001E-2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>-2.7514810000000001E-3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>4.0409710000000001E-2</v>
-      </c>
-      <c r="N25" s="3">
-        <v>-1.106589</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0.23147239999999999</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-3.9517780000000002E-2</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>2.0993850000000001E-2</v>
-      </c>
-      <c r="R25" s="3">
-        <v>9.1607819999999995E-5</v>
-      </c>
-      <c r="S25" s="3">
-        <v>3.9598109999999999E-2</v>
-      </c>
-      <c r="T25" s="3">
-        <v>-1.0877790000000001</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0.22725400000000001</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1.9206310000000001E-2</v>
-      </c>
-      <c r="W25" s="3">
-        <v>-4.1307319999999998E-4</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32083,10 +33326,51 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="4c297bfe-2ddf-49c0-b48d-5e3f9de3295d" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status_x005f_x0020_journalf_x005f_x00f8_ring xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01" xsi:nil="true"/>
+    <h491b3e5757f4a00a7c25d6edb0ba887 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h491b3e5757f4a00a7c25d6edb0ba887>
+    <TaxCatchAll xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <f74d752173c041e18d373851a76bda50 xmlns="77672d6a-d334-4423-ad11-06e59f1b7163">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f74d752173c041e18d373851a76bda50>
+    <m3df137df2ca43aeb5a0ac4f577ac654 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m3df137df2ca43aeb5a0ac4f577ac654>
+    <Sak_x0020_Mime_x0020_360 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Sak_x0020_Mime_x0020_360>
+    <StatusJournalForing xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SakMime360 xmlns="77672d6a-d334-4423-ad11-06e59f1b7163" xsi:nil="true"/>
+    <mdd69e788dc1498dbcc1a53e4b12ec9a xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Under arbeid</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f39d8bcc-2a80-4417-a67a-9134b0a418c4</TermId>
+        </TermInfo>
+      </Terms>
+    </mdd69e788dc1498dbcc1a53e4b12ec9a>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f420e9ee-b49f-4333-bab7-c251b655994b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004529961B9491544BB6E9569845A1CFBC" ma:contentTypeVersion="19" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="bdd6fce248717e052f50127e5e60a67e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="beae3e8e-208c-4b8a-be05-3e30f474ae01" xmlns:ns3="77672d6a-d334-4423-ad11-06e59f1b7163" xmlns:ns4="f420e9ee-b49f-4333-bab7-c251b655994b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18102af036a10ad8776a3a50be1e3e50" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32402,65 +33686,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status_x005f_x0020_journalf_x005f_x00f8_ring xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01" xsi:nil="true"/>
-    <h491b3e5757f4a00a7c25d6edb0ba887 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h491b3e5757f4a00a7c25d6edb0ba887>
-    <TaxCatchAll xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <f74d752173c041e18d373851a76bda50 xmlns="77672d6a-d334-4423-ad11-06e59f1b7163">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f74d752173c041e18d373851a76bda50>
-    <m3df137df2ca43aeb5a0ac4f577ac654 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m3df137df2ca43aeb5a0ac4f577ac654>
-    <Sak_x0020_Mime_x0020_360 xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Sak_x0020_Mime_x0020_360>
-    <StatusJournalForing xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SakMime360 xmlns="77672d6a-d334-4423-ad11-06e59f1b7163" xsi:nil="true"/>
-    <mdd69e788dc1498dbcc1a53e4b12ec9a xmlns="beae3e8e-208c-4b8a-be05-3e30f474ae01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Under arbeid</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f39d8bcc-2a80-4417-a67a-9134b0a418c4</TermId>
-        </TermInfo>
-      </Terms>
-    </mdd69e788dc1498dbcc1a53e4b12ec9a>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f420e9ee-b49f-4333-bab7-c251b655994b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="4c297bfe-2ddf-49c0-b48d-5e3f9de3295d" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC63863-F87B-4E30-AC2A-F8E52D13EB77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2570256C-4558-45F7-889B-E77DA7535EE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12AC2150-C6C0-40BE-B944-0356989878DA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A42B215-7B9D-444E-AC99-9988B29089BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32473,10 +33712,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12AC2150-C6C0-40BE-B944-0356989878DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="beae3e8e-208c-4b8a-be05-3e30f474ae01"/>
+    <ds:schemaRef ds:uri="77672d6a-d334-4423-ad11-06e59f1b7163"/>
+    <ds:schemaRef ds:uri="f420e9ee-b49f-4333-bab7-c251b655994b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2570256C-4558-45F7-889B-E77DA7535EE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FC63863-F87B-4E30-AC2A-F8E52D13EB77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>